--- a/Gantt-Chart-Groep4.xlsx
+++ b/Gantt-Chart-Groep4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{018D0A57-C96C-4CF5-A2AF-77D73BA06203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{262D75C6-545A-41E8-89B6-DA0015A58348}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{018D0A57-C96C-4CF5-A2AF-77D73BA06203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37D47309-D4D0-49CC-BF7A-46D2F6420334}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -489,6 +489,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -547,7 +569,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,6 +644,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1084,7 +1112,7 @@
   <dimension ref="B1:AP22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1122,69 +1150,69 @@
         <v>7</v>
       </c>
       <c r="H2" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="39"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="41"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="39"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="41"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="2:42" s="9" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1211,46 +1239,46 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="26">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="25">
         <v>2</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="25">
         <v>4</v>
       </c>
       <c r="L4" s="3">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="25">
         <v>6</v>
       </c>
       <c r="N4" s="3">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="25">
         <v>8</v>
       </c>
       <c r="P4" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="25">
         <v>10</v>
       </c>
       <c r="R4" s="3">
         <v>11</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="25">
         <v>12</v>
       </c>
       <c r="T4"/>
@@ -1298,16 +1326,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="20">
         <v>2</v>
       </c>
       <c r="F6" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -1388,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -1438,13 +1466,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="20">
         <v>5</v>
       </c>
       <c r="F11" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1466,16 +1494,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
         <v>1</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
@@ -1491,10 +1519,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="20">
         <v>0</v>
@@ -1519,10 +1547,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="20">
         <v>0</v>
